--- a/2026_연간_일별공급계획_2.xlsx
+++ b/2026_연간_일별공급계획_2.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>연</t>
   </si>
@@ -60,10 +60,6 @@
   </si>
   <si>
     <t>MJ/Nm3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>실적입력</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -181,7 +177,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -214,6 +210,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -523,7 +522,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -542,9 +541,7 @@
       <c r="E1" s="13">
         <v>42.563000000000002</v>
       </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
@@ -563,10 +560,10 @@
         <v>4</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
@@ -585,7 +582,8 @@
       <c r="E3" s="10">
         <v>5221420</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="10"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
@@ -604,6 +602,8 @@
       <c r="E4" s="10">
         <v>5514511</v>
       </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="6">
@@ -621,6 +621,8 @@
       <c r="E5" s="10">
         <v>5067276</v>
       </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="6">
@@ -638,6 +640,8 @@
       <c r="E6" s="10">
         <v>5240523</v>
       </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="6">
@@ -655,6 +659,8 @@
       <c r="E7" s="10">
         <v>5804544</v>
       </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="6">
@@ -672,6 +678,8 @@
       <c r="E8" s="10">
         <v>5738373</v>
       </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="6">
@@ -689,6 +697,8 @@
       <c r="E9" s="10">
         <v>5655920</v>
       </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="6">
@@ -706,6 +716,8 @@
       <c r="E10" s="10">
         <v>5992972</v>
       </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="6">
@@ -723,6 +735,8 @@
       <c r="E11" s="10">
         <v>5806043</v>
       </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="10"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="6">
@@ -740,6 +754,8 @@
       <c r="E12" s="10">
         <v>5264853</v>
       </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="6">
@@ -757,6 +773,8 @@
       <c r="E13" s="10">
         <v>5281149</v>
       </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="6">
@@ -774,6 +792,8 @@
       <c r="E14" s="10">
         <v>5916274</v>
       </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="6">
@@ -791,6 +811,8 @@
       <c r="E15" s="10">
         <v>5806364</v>
       </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="6">
@@ -808,8 +830,10 @@
       <c r="E16" s="10">
         <v>5697300</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F16" s="7"/>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="6">
         <v>2026</v>
       </c>
@@ -825,8 +849,10 @@
       <c r="E17" s="10">
         <v>5822186</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F17" s="7"/>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="6">
         <v>2026</v>
       </c>
@@ -843,7 +869,7 @@
         <v>5641819</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="6">
         <v>2026</v>
       </c>
@@ -860,7 +886,7 @@
         <v>5326398</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="6">
         <v>2026</v>
       </c>
@@ -877,7 +903,7 @@
         <v>4672061</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="6">
         <v>2026</v>
       </c>
@@ -894,7 +920,7 @@
         <v>5468900</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="6">
         <v>2026</v>
       </c>
@@ -911,7 +937,7 @@
         <v>5645769</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="6">
         <v>2026</v>
       </c>
@@ -928,7 +954,7 @@
         <v>5949437</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="6">
         <v>2026</v>
       </c>
@@ -945,7 +971,7 @@
         <v>6391959</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="6">
         <v>2026</v>
       </c>
@@ -962,7 +988,7 @@
         <v>6133275</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="6">
         <v>2026</v>
       </c>
@@ -979,7 +1005,7 @@
         <v>5689426</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="6">
         <v>2026</v>
       </c>
@@ -996,7 +1022,7 @@
         <v>5027497</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="6">
         <v>2026</v>
       </c>
@@ -1013,7 +1039,7 @@
         <v>5519336</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="6">
         <v>2026</v>
       </c>
@@ -1030,7 +1056,7 @@
         <v>7228245</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="6">
         <v>2026</v>
       </c>
@@ -1047,7 +1073,7 @@
         <v>6632121</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="6">
         <v>2026</v>
       </c>
@@ -1064,7 +1090,7 @@
         <v>5943616</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="6">
         <v>2026</v>
       </c>

--- a/2026_연간_일별공급계획_2.xlsx
+++ b/2026_연간_일별공급계획_2.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\업무\업무\2026_일별공급계획\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\user\Desktop\0. 마케팅기획팀\2026\0. 스터디\2026\streamlit_study\일일예측_관리\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7A18C8-59B2-4CCE-8607-9A7B1DE87886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="연간" sheetId="1" r:id="rId1"/>
     <sheet name="월 요약 계획" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>연</t>
   </si>
@@ -62,19 +63,11 @@
     <t>MJ/Nm3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
-  <si>
-    <t>실적공급량(GJ)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>실적공급량(m3)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;_-;_-@_-"/>
@@ -109,12 +102,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -177,7 +182,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -212,9 +217,20 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="41" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
@@ -517,33 +533,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H368"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E368"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="15.3984375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.375" style="2" customWidth="1"/>
     <col min="5" max="5" width="16.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.09765625" customWidth="1"/>
-    <col min="7" max="7" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D1" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="13">
         <v>42.563000000000002</v>
       </c>
-      <c r="F1" s="14"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -559,14 +571,8 @@
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2026</v>
       </c>
@@ -582,11 +588,8 @@
       <c r="E3" s="10">
         <v>5221420</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>2026</v>
       </c>
@@ -602,10 +605,8 @@
       <c r="E4" s="10">
         <v>5514511</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>2026</v>
       </c>
@@ -621,10 +622,8 @@
       <c r="E5" s="10">
         <v>5067276</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>2026</v>
       </c>
@@ -640,10 +639,8 @@
       <c r="E6" s="10">
         <v>5240523</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>2026</v>
       </c>
@@ -659,10 +656,8 @@
       <c r="E7" s="10">
         <v>5804544</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>2026</v>
       </c>
@@ -678,10 +673,8 @@
       <c r="E8" s="10">
         <v>5738373</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="10"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>2026</v>
       </c>
@@ -697,10 +690,8 @@
       <c r="E9" s="10">
         <v>5655920</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="10"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>2026</v>
       </c>
@@ -716,10 +707,8 @@
       <c r="E10" s="10">
         <v>5992972</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="10"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>2026</v>
       </c>
@@ -735,10 +724,8 @@
       <c r="E11" s="10">
         <v>5806043</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="10"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>2026</v>
       </c>
@@ -754,10 +741,8 @@
       <c r="E12" s="10">
         <v>5264853</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="10"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>2026</v>
       </c>
@@ -773,10 +758,8 @@
       <c r="E13" s="10">
         <v>5281149</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="10"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>2026</v>
       </c>
@@ -792,10 +775,8 @@
       <c r="E14" s="10">
         <v>5916274</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="10"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>2026</v>
       </c>
@@ -811,10 +792,8 @@
       <c r="E15" s="10">
         <v>5806364</v>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="10"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>2026</v>
       </c>
@@ -830,10 +809,8 @@
       <c r="E16" s="10">
         <v>5697300</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="10"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>2026</v>
       </c>
@@ -849,10 +826,8 @@
       <c r="E17" s="10">
         <v>5822186</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="10"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>2026</v>
       </c>
@@ -869,7 +844,7 @@
         <v>5641819</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>2026</v>
       </c>
@@ -886,7 +861,7 @@
         <v>5326398</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>2026</v>
       </c>
@@ -903,7 +878,7 @@
         <v>4672061</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>2026</v>
       </c>
@@ -920,7 +895,7 @@
         <v>5468900</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>2026</v>
       </c>
@@ -937,7 +912,7 @@
         <v>5645769</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>2026</v>
       </c>
@@ -954,7 +929,7 @@
         <v>5949437</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>2026</v>
       </c>
@@ -971,7 +946,7 @@
         <v>6391959</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>2026</v>
       </c>
@@ -988,7 +963,7 @@
         <v>6133275</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>2026</v>
       </c>
@@ -1005,7 +980,7 @@
         <v>5689426</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>2026</v>
       </c>
@@ -1022,7 +997,7 @@
         <v>5027497</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>2026</v>
       </c>
@@ -1039,24 +1014,24 @@
         <v>5519336</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A29" s="6">
-        <v>2026</v>
-      </c>
-      <c r="B29" s="6">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="14">
+        <v>2026</v>
+      </c>
+      <c r="B29" s="14">
         <v>1</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="14">
         <v>27</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="15">
         <v>307655.80599999998</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="16">
         <v>7228245</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>2026</v>
       </c>
@@ -1073,7 +1048,7 @@
         <v>6632121</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>2026</v>
       </c>
@@ -1090,7 +1065,7 @@
         <v>5943616</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>2026</v>
       </c>
@@ -1107,7 +1082,7 @@
         <v>5405506</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>2026</v>
       </c>
@@ -1124,7 +1099,7 @@
         <v>5336988</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>2026</v>
       </c>
@@ -1134,14 +1109,14 @@
       <c r="C34" s="6">
         <v>1</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="15">
         <v>189264.87900000002</v>
       </c>
-      <c r="E34" s="10">
-        <v>4446700</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E34" s="16">
+        <v>4446699.692220943</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>2026</v>
       </c>
@@ -1151,14 +1126,14 @@
       <c r="C35" s="6">
         <v>2</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="15">
         <v>216471.34400000001</v>
       </c>
-      <c r="E35" s="10">
-        <v>5085904</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E35" s="16">
+        <v>5085904.2830627542</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>2026</v>
       </c>
@@ -1168,14 +1143,14 @@
       <c r="C36" s="6">
         <v>3</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="15">
         <v>229741.63099999999</v>
       </c>
-      <c r="E36" s="10">
-        <v>5397684</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E36" s="16">
+        <v>5397684.1623005895</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>2026</v>
       </c>
@@ -1185,14 +1160,14 @@
       <c r="C37" s="6">
         <v>4</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="15">
         <v>237677.64800000002</v>
       </c>
-      <c r="E37" s="10">
-        <v>5584138</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E37" s="16">
+        <v>5584137.584286822</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>2026</v>
       </c>
@@ -1202,14 +1177,14 @@
       <c r="C38" s="6">
         <v>5</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="15">
         <v>234830.416</v>
       </c>
-      <c r="E38" s="10">
-        <v>5517243</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E38" s="16">
+        <v>5517243.051476635</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>2026</v>
       </c>
@@ -1219,14 +1194,14 @@
       <c r="C39" s="6">
         <v>6</v>
       </c>
-      <c r="D39" s="7">
-        <v>236237.152</v>
-      </c>
-      <c r="E39" s="10">
-        <v>5550294</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="D39" s="15">
+        <v>242249.56484632625</v>
+      </c>
+      <c r="E39" s="16">
+        <v>5691552.8709519124</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>2026</v>
       </c>
@@ -1236,14 +1211,14 @@
       <c r="C40" s="6">
         <v>7</v>
       </c>
-      <c r="D40" s="7">
-        <v>199120.538</v>
-      </c>
-      <c r="E40" s="10">
-        <v>4678254</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="D40" s="15">
+        <v>216895.49394829461</v>
+      </c>
+      <c r="E40" s="16">
+        <v>5095869.5098628998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>2026</v>
       </c>
@@ -1253,14 +1228,14 @@
       <c r="C41" s="6">
         <v>8</v>
       </c>
-      <c r="D41" s="7">
-        <v>200110.62600000002</v>
-      </c>
-      <c r="E41" s="10">
-        <v>4701516</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="D41" s="15">
+        <v>217975.6727983235</v>
+      </c>
+      <c r="E41" s="16">
+        <v>5121247.8631281508</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>2026</v>
       </c>
@@ -1270,14 +1245,14 @@
       <c r="C42" s="6">
         <v>9</v>
       </c>
-      <c r="D42" s="7">
-        <v>218586.80900000001</v>
-      </c>
-      <c r="E42" s="10">
-        <v>5135606</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="D42" s="15">
+        <v>219556.15720475759</v>
+      </c>
+      <c r="E42" s="16">
+        <v>5158380.6875633197</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>2026</v>
       </c>
@@ -1287,14 +1262,14 @@
       <c r="C43" s="6">
         <v>10</v>
       </c>
-      <c r="D43" s="7">
-        <v>206156.61300000001</v>
-      </c>
-      <c r="E43" s="10">
-        <v>4843564</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="D43" s="15">
+        <v>223996.4765141203</v>
+      </c>
+      <c r="E43" s="16">
+        <v>5262704.1447764561</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>2026</v>
       </c>
@@ -1304,14 +1279,14 @@
       <c r="C44" s="6">
         <v>11</v>
       </c>
-      <c r="D44" s="7">
-        <v>203563.101</v>
-      </c>
-      <c r="E44" s="10">
-        <v>4782630</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="D44" s="15">
+        <v>221776.31685943893</v>
+      </c>
+      <c r="E44" s="16">
+        <v>5210542.4161698874</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>2026</v>
       </c>
@@ -1321,14 +1296,14 @@
       <c r="C45" s="6">
         <v>12</v>
       </c>
-      <c r="D45" s="7">
-        <v>219600.05900000001</v>
-      </c>
-      <c r="E45" s="10">
-        <v>5159412</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="D45" s="15">
+        <v>225172.5109646506</v>
+      </c>
+      <c r="E45" s="16">
+        <v>5290334.5855473196</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>2026</v>
       </c>
@@ -1338,14 +1313,14 @@
       <c r="C46" s="6">
         <v>13</v>
       </c>
-      <c r="D46" s="7">
-        <v>207499.34700000001</v>
-      </c>
-      <c r="E46" s="10">
-        <v>4875111</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="D46" s="15">
+        <v>212751.05356527548</v>
+      </c>
+      <c r="E46" s="16">
+        <v>4998497.6050860016</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>2026</v>
       </c>
@@ -1355,82 +1330,82 @@
       <c r="C47" s="6">
         <v>14</v>
       </c>
-      <c r="D47" s="7">
-        <v>209186.976</v>
-      </c>
-      <c r="E47" s="10">
-        <v>4914761</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A48" s="6">
-        <v>2026</v>
-      </c>
-      <c r="B48" s="6">
+      <c r="D47" s="15">
+        <v>190838.35139130434</v>
+      </c>
+      <c r="E47" s="16">
+        <v>4483667.7722741421</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="17">
+        <v>2026</v>
+      </c>
+      <c r="B48" s="17">
         <v>2</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="17">
         <v>15</v>
       </c>
-      <c r="D48" s="7">
-        <v>166504.20800000001</v>
-      </c>
-      <c r="E48" s="10">
-        <v>3911947</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A49" s="6">
-        <v>2026</v>
-      </c>
-      <c r="B49" s="6">
+      <c r="D48" s="15">
+        <v>186962.31341314904</v>
+      </c>
+      <c r="E48" s="16">
+        <v>4392601.8704778571</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="17">
+        <v>2026</v>
+      </c>
+      <c r="B49" s="17">
         <v>2</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="17">
         <v>16</v>
       </c>
-      <c r="D49" s="7">
-        <v>183405.17300000001</v>
-      </c>
-      <c r="E49" s="10">
-        <v>4309028</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A50" s="6">
-        <v>2026</v>
-      </c>
-      <c r="B50" s="6">
+      <c r="D49" s="15">
+        <v>185127.00005999368</v>
+      </c>
+      <c r="E49" s="16">
+        <v>4349481.9458213393</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="17">
+        <v>2026</v>
+      </c>
+      <c r="B50" s="17">
         <v>2</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50" s="17">
         <v>17</v>
       </c>
-      <c r="D50" s="7">
-        <v>190753.54500000001</v>
-      </c>
-      <c r="E50" s="10">
-        <v>4481675</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A51" s="6">
-        <v>2026</v>
-      </c>
-      <c r="B51" s="6">
+      <c r="D50" s="15">
+        <v>177785.74664737232</v>
+      </c>
+      <c r="E50" s="16">
+        <v>4177002.2471952708</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="17">
+        <v>2026</v>
+      </c>
+      <c r="B51" s="17">
         <v>2</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51" s="17">
         <v>18</v>
       </c>
-      <c r="D51" s="7">
-        <v>190753.54500000001</v>
-      </c>
-      <c r="E51" s="10">
-        <v>4481675</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="D51" s="15">
+        <v>185127.00005999368</v>
+      </c>
+      <c r="E51" s="16">
+        <v>4349481.9458213393</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>2026</v>
       </c>
@@ -1440,14 +1415,14 @@
       <c r="C52" s="6">
         <v>19</v>
       </c>
-      <c r="D52" s="7">
-        <v>201534.20500000002</v>
-      </c>
-      <c r="E52" s="10">
-        <v>4734962</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="D52" s="15">
+        <v>185127.00005999368</v>
+      </c>
+      <c r="E52" s="16">
+        <v>4349481.9458213393</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>2026</v>
       </c>
@@ -1457,14 +1432,14 @@
       <c r="C53" s="6">
         <v>20</v>
       </c>
-      <c r="D53" s="7">
-        <v>207421.323</v>
-      </c>
-      <c r="E53" s="10">
-        <v>4873278</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="D53" s="15">
+        <v>186044.65673657134</v>
+      </c>
+      <c r="E53" s="16">
+        <v>4371041.9081495972</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>2026</v>
       </c>
@@ -1474,14 +1449,14 @@
       <c r="C54" s="6">
         <v>21</v>
       </c>
-      <c r="D54" s="7">
-        <v>181263.32200000001</v>
-      </c>
-      <c r="E54" s="10">
-        <v>4258706</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="D54" s="15">
+        <v>189474.35139130434</v>
+      </c>
+      <c r="E54" s="16">
+        <v>4451621.1590184988</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>2026</v>
       </c>
@@ -1491,14 +1466,14 @@
       <c r="C55" s="6">
         <v>22</v>
       </c>
-      <c r="D55" s="7">
-        <v>190662.88200000001</v>
-      </c>
-      <c r="E55" s="10">
-        <v>4479545</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="D55" s="15">
+        <v>180122.35139130434</v>
+      </c>
+      <c r="E55" s="16">
+        <v>4231899.8047906477</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <v>2026</v>
       </c>
@@ -1508,14 +1483,14 @@
       <c r="C56" s="6">
         <v>23</v>
       </c>
-      <c r="D56" s="7">
-        <v>203421.092</v>
-      </c>
-      <c r="E56" s="10">
-        <v>4779294</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="D56" s="15">
+        <v>199065.35139130434</v>
+      </c>
+      <c r="E56" s="16">
+        <v>4676957.7189414361</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <v>2026</v>
       </c>
@@ -1525,14 +1500,14 @@
       <c r="C57" s="6">
         <v>24</v>
       </c>
-      <c r="D57" s="7">
-        <v>200301.08100000001</v>
-      </c>
-      <c r="E57" s="10">
-        <v>4705991</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="D57" s="15">
+        <v>202169.35139130434</v>
+      </c>
+      <c r="E57" s="16">
+        <v>4749884.9092240753</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>2026</v>
       </c>
@@ -1542,14 +1517,14 @@
       <c r="C58" s="6">
         <v>25</v>
       </c>
-      <c r="D58" s="7">
-        <v>204941.25400000002</v>
-      </c>
-      <c r="E58" s="10">
-        <v>4815010</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="D58" s="15">
+        <v>203682.35139130434</v>
+      </c>
+      <c r="E58" s="16">
+        <v>4785432.2155699627</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <v>2026</v>
       </c>
@@ -1559,14 +1534,14 @@
       <c r="C59" s="6">
         <v>26</v>
       </c>
-      <c r="D59" s="7">
-        <v>197048.652</v>
-      </c>
-      <c r="E59" s="10">
-        <v>4629576</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="D59" s="15">
+        <v>195828.35139130434</v>
+      </c>
+      <c r="E59" s="16">
+        <v>4600904.7489205301</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
         <v>2026</v>
       </c>
@@ -1576,14 +1551,14 @@
       <c r="C60" s="6">
         <v>27</v>
       </c>
-      <c r="D60" s="7">
-        <v>189005.25200000001</v>
-      </c>
-      <c r="E60" s="10">
-        <v>4440600</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="D60" s="15">
+        <v>179315.34079130436</v>
+      </c>
+      <c r="E60" s="16">
+        <v>4212938.4260579497</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
         <v>2026</v>
       </c>
@@ -1593,14 +1568,14 @@
       <c r="C61" s="6">
         <v>28</v>
       </c>
-      <c r="D61" s="7">
-        <v>197263.296</v>
-      </c>
-      <c r="E61" s="10">
-        <v>4634619</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="D61" s="15">
+        <v>177297.31779130435</v>
+      </c>
+      <c r="E61" s="16">
+        <v>4165525.8141649901</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
         <v>2026</v>
       </c>
@@ -1617,7 +1592,7 @@
         <v>3751972</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>2026</v>
       </c>
@@ -1634,7 +1609,7 @@
         <v>4419600</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
         <v>2026</v>
       </c>
@@ -1651,7 +1626,7 @@
         <v>4448897</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
         <v>2026</v>
       </c>
@@ -1668,7 +1643,7 @@
         <v>4561166</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
         <v>2026</v>
       </c>
@@ -1685,7 +1660,7 @@
         <v>4658905</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
         <v>2026</v>
       </c>
@@ -1702,7 +1677,7 @@
         <v>4676592</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="6">
         <v>2026</v>
       </c>
@@ -1719,7 +1694,7 @@
         <v>4108085</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="6">
         <v>2026</v>
       </c>
@@ -1736,7 +1711,7 @@
         <v>3373973</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="6">
         <v>2026</v>
       </c>
@@ -1753,7 +1728,7 @@
         <v>4027994</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="6">
         <v>2026</v>
       </c>
@@ -1770,7 +1745,7 @@
         <v>3904475</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="6">
         <v>2026</v>
       </c>
@@ -1787,7 +1762,7 @@
         <v>3627840</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="6">
         <v>2026</v>
       </c>
@@ -1804,7 +1779,7 @@
         <v>3445309</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
         <v>2026</v>
       </c>
@@ -1821,7 +1796,7 @@
         <v>3650446</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
         <v>2026</v>
       </c>
@@ -1838,7 +1813,7 @@
         <v>3484989</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="6">
         <v>2026</v>
       </c>
@@ -1855,7 +1830,7 @@
         <v>3031933</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="6">
         <v>2026</v>
       </c>
@@ -1872,7 +1847,7 @@
         <v>3604020</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="6">
         <v>2026</v>
       </c>
@@ -1889,7 +1864,7 @@
         <v>3737030</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="6">
         <v>2026</v>
       </c>
@@ -1906,7 +1881,7 @@
         <v>3898407</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="6">
         <v>2026</v>
       </c>
@@ -1923,7 +1898,7 @@
         <v>3791283</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="6">
         <v>2026</v>
       </c>
@@ -1940,7 +1915,7 @@
         <v>3529300</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="6">
         <v>2026</v>
       </c>
@@ -1957,7 +1932,7 @@
         <v>3126239</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="6">
         <v>2026</v>
       </c>
@@ -1974,7 +1949,7 @@
         <v>2478786</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="6">
         <v>2026</v>
       </c>
@@ -1991,7 +1966,7 @@
         <v>3014226</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="6">
         <v>2026</v>
       </c>
@@ -2008,7 +1983,7 @@
         <v>3061459</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="6">
         <v>2026</v>
       </c>
@@ -2025,7 +2000,7 @@
         <v>2865468</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="6">
         <v>2026</v>
       </c>
@@ -2042,7 +2017,7 @@
         <v>2888378</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="6">
         <v>2026</v>
       </c>
@@ -2059,7 +2034,7 @@
         <v>3010426</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="6">
         <v>2026</v>
       </c>
@@ -2076,7 +2051,7 @@
         <v>2702625</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="6">
         <v>2026</v>
       </c>
@@ -2093,7 +2068,7 @@
         <v>2632829</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="6">
         <v>2026</v>
       </c>
@@ -2110,7 +2085,7 @@
         <v>3359025</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="6">
         <v>2026</v>
       </c>
@@ -2127,7 +2102,7 @@
         <v>3787965</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="6">
         <v>2026</v>
       </c>
@@ -2144,7 +2119,7 @@
         <v>3047162</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="6">
         <v>2026</v>
       </c>
@@ -2161,7 +2136,7 @@
         <v>3019264</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="6">
         <v>2026</v>
       </c>
@@ -2178,7 +2153,7 @@
         <v>2880722</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="6">
         <v>2026</v>
       </c>
@@ -2195,7 +2170,7 @@
         <v>2452699</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="6">
         <v>2026</v>
       </c>
@@ -2212,7 +2187,7 @@
         <v>2186055</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="6">
         <v>2026</v>
       </c>
@@ -2229,7 +2204,7 @@
         <v>2703229</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="6">
         <v>2026</v>
       </c>
@@ -2246,7 +2221,7 @@
         <v>2921628</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="6">
         <v>2026</v>
       </c>
@@ -2263,7 +2238,7 @@
         <v>2538490</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="6">
         <v>2026</v>
       </c>
@@ -2280,7 +2255,7 @@
         <v>2511163</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="6">
         <v>2026</v>
       </c>
@@ -2297,7 +2272,7 @@
         <v>2380835</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="6">
         <v>2026</v>
       </c>
@@ -2314,7 +2289,7 @@
         <v>2169381</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="6">
         <v>2026</v>
       </c>
@@ -2331,7 +2306,7 @@
         <v>2093348</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="6">
         <v>2026</v>
       </c>
@@ -2348,7 +2323,7 @@
         <v>2775087</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="6">
         <v>2026</v>
       </c>
@@ -2365,7 +2340,7 @@
         <v>2597286</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="6">
         <v>2026</v>
       </c>
@@ -2382,7 +2357,7 @@
         <v>2456576</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="6">
         <v>2026</v>
       </c>
@@ -2399,7 +2374,7 @@
         <v>2250472</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="6">
         <v>2026</v>
       </c>
@@ -2416,7 +2391,7 @@
         <v>2112687</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="6">
         <v>2026</v>
       </c>
@@ -2433,7 +2408,7 @@
         <v>1926507</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="6">
         <v>2026</v>
       </c>
@@ -2450,7 +2425,7 @@
         <v>1831988</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="6">
         <v>2026</v>
       </c>
@@ -2467,7 +2442,7 @@
         <v>2266218</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="6">
         <v>2026</v>
       </c>
@@ -2484,7 +2459,7 @@
         <v>2658024</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="6">
         <v>2026</v>
       </c>
@@ -2501,7 +2476,7 @@
         <v>2434891</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="6">
         <v>2026</v>
       </c>
@@ -2518,7 +2493,7 @@
         <v>2323538</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="6">
         <v>2026</v>
       </c>
@@ -2535,7 +2510,7 @@
         <v>2212682</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="6">
         <v>2026</v>
       </c>
@@ -2552,7 +2527,7 @@
         <v>1807571</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="6">
         <v>2026</v>
       </c>
@@ -2569,7 +2544,7 @@
         <v>1617864</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="6">
         <v>2026</v>
       </c>
@@ -2586,7 +2561,7 @@
         <v>2201298</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="6">
         <v>2026</v>
       </c>
@@ -2603,7 +2578,7 @@
         <v>2485517</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="6">
         <v>2026</v>
       </c>
@@ -2620,7 +2595,7 @@
         <v>1926404</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="6">
         <v>2026</v>
       </c>
@@ -2637,7 +2612,7 @@
         <v>2526109</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="6">
         <v>2026</v>
       </c>
@@ -2654,7 +2629,7 @@
         <v>1926951</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="6">
         <v>2026</v>
       </c>
@@ -2671,7 +2646,7 @@
         <v>1715760</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="6">
         <v>2026</v>
       </c>
@@ -2688,7 +2663,7 @@
         <v>1621852</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="6">
         <v>2026</v>
       </c>
@@ -2705,7 +2680,7 @@
         <v>1766523</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="6">
         <v>2026</v>
       </c>
@@ -2722,7 +2697,7 @@
         <v>1951720</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="6">
         <v>2026</v>
       </c>
@@ -2739,7 +2714,7 @@
         <v>2064202</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="6">
         <v>2026</v>
       </c>
@@ -2756,7 +2731,7 @@
         <v>1967089</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="6">
         <v>2026</v>
       </c>
@@ -2773,7 +2748,7 @@
         <v>2036564</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="6">
         <v>2026</v>
       </c>
@@ -2790,7 +2765,7 @@
         <v>1652436</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="6">
         <v>2026</v>
       </c>
@@ -2807,7 +2782,7 @@
         <v>1467681</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="6">
         <v>2026</v>
       </c>
@@ -2824,7 +2799,7 @@
         <v>2003676</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="6">
         <v>2026</v>
       </c>
@@ -2841,7 +2816,7 @@
         <v>1984405</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="6">
         <v>2026</v>
       </c>
@@ -2858,7 +2833,7 @@
         <v>2038626</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="6">
         <v>2026</v>
       </c>
@@ -2875,7 +2850,7 @@
         <v>2073035</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="6">
         <v>2026</v>
       </c>
@@ -2892,7 +2867,7 @@
         <v>1838371</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="6">
         <v>2026</v>
       </c>
@@ -2909,7 +2884,7 @@
         <v>1468338</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="6">
         <v>2026</v>
       </c>
@@ -2926,7 +2901,7 @@
         <v>1263806</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="6">
         <v>2026</v>
       </c>
@@ -2943,7 +2918,7 @@
         <v>1749423</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="6">
         <v>2026</v>
       </c>
@@ -2960,7 +2935,7 @@
         <v>1813820</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="6">
         <v>2026</v>
       </c>
@@ -2977,7 +2952,7 @@
         <v>1787189</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="6">
         <v>2026</v>
       </c>
@@ -2994,7 +2969,7 @@
         <v>1880895</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="6">
         <v>2026</v>
       </c>
@@ -3011,7 +2986,7 @@
         <v>1727012</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="6">
         <v>2026</v>
       </c>
@@ -3028,7 +3003,7 @@
         <v>1419319</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="6">
         <v>2026</v>
       </c>
@@ -3045,7 +3020,7 @@
         <v>1246115</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="6">
         <v>2026</v>
       </c>
@@ -3062,7 +3037,7 @@
         <v>1743591</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="6">
         <v>2026</v>
       </c>
@@ -3079,7 +3054,7 @@
         <v>1797963</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="6">
         <v>2026</v>
       </c>
@@ -3096,7 +3071,7 @@
         <v>1820472</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="6">
         <v>2026</v>
       </c>
@@ -3113,7 +3088,7 @@
         <v>1786994</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="6">
         <v>2026</v>
       </c>
@@ -3130,7 +3105,7 @@
         <v>1735110</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="6">
         <v>2026</v>
       </c>
@@ -3147,7 +3122,7 @@
         <v>1367519</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="6">
         <v>2026</v>
       </c>
@@ -3164,7 +3139,7 @@
         <v>1399863</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="6">
         <v>2026</v>
       </c>
@@ -3181,7 +3156,7 @@
         <v>1620970</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="6">
         <v>2026</v>
       </c>
@@ -3198,7 +3173,7 @@
         <v>1639727</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="6">
         <v>2026</v>
       </c>
@@ -3215,7 +3190,7 @@
         <v>1751445</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="6">
         <v>2026</v>
       </c>
@@ -3232,7 +3207,7 @@
         <v>1790903</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="6">
         <v>2026</v>
       </c>
@@ -3249,7 +3224,7 @@
         <v>1701522</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="6">
         <v>2026</v>
       </c>
@@ -3266,7 +3241,7 @@
         <v>1340780</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="6">
         <v>2026</v>
       </c>
@@ -3283,7 +3258,7 @@
         <v>1215481</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="6">
         <v>2026</v>
       </c>
@@ -3300,7 +3275,7 @@
         <v>1656961</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="6">
         <v>2026</v>
       </c>
@@ -3317,7 +3292,7 @@
         <v>1726419</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="6">
         <v>2026</v>
       </c>
@@ -3334,7 +3309,7 @@
         <v>1730712</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="6">
         <v>2026</v>
       </c>
@@ -3351,7 +3326,7 @@
         <v>1724326</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="6">
         <v>2026</v>
       </c>
@@ -3368,7 +3343,7 @@
         <v>1662410</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="6">
         <v>2026</v>
       </c>
@@ -3385,7 +3360,7 @@
         <v>1346707</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="6">
         <v>2026</v>
       </c>
@@ -3402,7 +3377,7 @@
         <v>1189018</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="6">
         <v>2026</v>
       </c>
@@ -3419,7 +3394,7 @@
         <v>1631580</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="6">
         <v>2026</v>
       </c>
@@ -3436,7 +3411,7 @@
         <v>1697843</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="6">
         <v>2026</v>
       </c>
@@ -3453,7 +3428,7 @@
         <v>1698041</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="6">
         <v>2026</v>
       </c>
@@ -3470,7 +3445,7 @@
         <v>1703371</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="6">
         <v>2026</v>
       </c>
@@ -3487,7 +3462,7 @@
         <v>1677864</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="6">
         <v>2026</v>
       </c>
@@ -3504,7 +3479,7 @@
         <v>1299843</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="6">
         <v>2026</v>
       </c>
@@ -3521,7 +3496,7 @@
         <v>1140038</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="6">
         <v>2026</v>
       </c>
@@ -3538,7 +3513,7 @@
         <v>1594553</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="6">
         <v>2026</v>
       </c>
@@ -3555,7 +3530,7 @@
         <v>1671392</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="6">
         <v>2026</v>
       </c>
@@ -3572,7 +3547,7 @@
         <v>1683880</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="6">
         <v>2026</v>
       </c>
@@ -3589,7 +3564,7 @@
         <v>1687505</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="6">
         <v>2026</v>
       </c>
@@ -3606,7 +3581,7 @@
         <v>1632468</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="6">
         <v>2026</v>
       </c>
@@ -3623,7 +3598,7 @@
         <v>1299577</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="6">
         <v>2026</v>
       </c>
@@ -3640,7 +3615,7 @@
         <v>1116402</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="6">
         <v>2026</v>
       </c>
@@ -3657,7 +3632,7 @@
         <v>1613888</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="6">
         <v>2026</v>
       </c>
@@ -3674,7 +3649,7 @@
         <v>1687856</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="6">
         <v>2026</v>
       </c>
@@ -3691,7 +3666,7 @@
         <v>1603602</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="6">
         <v>2026</v>
       </c>
@@ -3708,7 +3683,7 @@
         <v>1609203</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="6">
         <v>2026</v>
       </c>
@@ -3725,7 +3700,7 @@
         <v>1555317</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="6">
         <v>2026</v>
       </c>
@@ -3742,7 +3717,7 @@
         <v>1209650</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="6">
         <v>2026</v>
       </c>
@@ -3759,7 +3734,7 @@
         <v>1058182</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="6">
         <v>2026</v>
       </c>
@@ -3776,7 +3751,7 @@
         <v>1520334</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="6">
         <v>2026</v>
       </c>
@@ -3793,7 +3768,7 @@
         <v>1606290</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="6">
         <v>2026</v>
       </c>
@@ -3810,7 +3785,7 @@
         <v>1584112</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="6">
         <v>2026</v>
       </c>
@@ -3827,7 +3802,7 @@
         <v>1597205</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="6">
         <v>2026</v>
       </c>
@@ -3844,7 +3819,7 @@
         <v>1557980</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="6">
         <v>2026</v>
       </c>
@@ -3861,7 +3836,7 @@
         <v>1226475</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="6">
         <v>2026</v>
       </c>
@@ -3878,7 +3853,7 @@
         <v>1067973</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="6">
         <v>2026</v>
       </c>
@@ -3895,7 +3870,7 @@
         <v>1495947</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="6">
         <v>2026</v>
       </c>
@@ -3912,7 +3887,7 @@
         <v>1594238</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="6">
         <v>2026</v>
       </c>
@@ -3929,7 +3904,7 @@
         <v>1607812</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="6">
         <v>2026</v>
       </c>
@@ -3946,7 +3921,7 @@
         <v>1594942</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="6">
         <v>2026</v>
       </c>
@@ -3963,7 +3938,7 @@
         <v>1546057</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="6">
         <v>2026</v>
       </c>
@@ -3980,7 +3955,7 @@
         <v>1222460</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="6">
         <v>2026</v>
       </c>
@@ -3997,7 +3972,7 @@
         <v>1074677</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="6">
         <v>2026</v>
       </c>
@@ -4014,7 +3989,7 @@
         <v>1540684</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="6">
         <v>2026</v>
       </c>
@@ -4031,7 +4006,7 @@
         <v>1584381</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="6">
         <v>2026</v>
       </c>
@@ -4048,7 +4023,7 @@
         <v>1523161</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="6">
         <v>2026</v>
       </c>
@@ -4065,7 +4040,7 @@
         <v>1495399</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="6">
         <v>2026</v>
       </c>
@@ -4082,7 +4057,7 @@
         <v>1429621</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="6">
         <v>2026</v>
       </c>
@@ -4099,7 +4074,7 @@
         <v>1152866</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="6">
         <v>2026</v>
       </c>
@@ -4116,7 +4091,7 @@
         <v>963052</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="6">
         <v>2026</v>
       </c>
@@ -4133,7 +4108,7 @@
         <v>1404463</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="6">
         <v>2026</v>
       </c>
@@ -4150,7 +4125,7 @@
         <v>1540722</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="6">
         <v>2026</v>
       </c>
@@ -4167,7 +4142,7 @@
         <v>1303579</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="6">
         <v>2026</v>
       </c>
@@ -4184,7 +4159,7 @@
         <v>1272343</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="6">
         <v>2026</v>
       </c>
@@ -4201,7 +4176,7 @@
         <v>1522244</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="6">
         <v>2026</v>
       </c>
@@ -4218,7 +4193,7 @@
         <v>1061597</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="6">
         <v>2026</v>
       </c>
@@ -4235,7 +4210,7 @@
         <v>966672</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="6">
         <v>2026</v>
       </c>
@@ -4252,7 +4227,7 @@
         <v>1360884</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="6">
         <v>2026</v>
       </c>
@@ -4269,7 +4244,7 @@
         <v>1329853</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="6">
         <v>2026</v>
       </c>
@@ -4286,7 +4261,7 @@
         <v>1405558</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="6">
         <v>2026</v>
       </c>
@@ -4303,7 +4278,7 @@
         <v>1419581</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="6">
         <v>2026</v>
       </c>
@@ -4320,7 +4295,7 @@
         <v>1304409</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="6">
         <v>2026</v>
       </c>
@@ -4337,7 +4312,7 @@
         <v>1192303</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="6">
         <v>2026</v>
       </c>
@@ -4354,7 +4329,7 @@
         <v>1037379</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="6">
         <v>2026</v>
       </c>
@@ -4371,7 +4346,7 @@
         <v>1430970</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="6">
         <v>2026</v>
       </c>
@@ -4388,7 +4363,7 @@
         <v>1577432</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="6">
         <v>2026</v>
       </c>
@@ -4405,7 +4380,7 @@
         <v>1604136</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="6">
         <v>2026</v>
       </c>
@@ -4422,7 +4397,7 @@
         <v>1549959</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="6">
         <v>2026</v>
       </c>
@@ -4439,7 +4414,7 @@
         <v>1519416</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="6">
         <v>2026</v>
       </c>
@@ -4456,7 +4431,7 @@
         <v>1199975</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="6">
         <v>2026</v>
       </c>
@@ -4473,7 +4448,7 @@
         <v>1053426</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="6">
         <v>2026</v>
       </c>
@@ -4490,7 +4465,7 @@
         <v>1098065</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="6">
         <v>2026</v>
       </c>
@@ -4507,7 +4482,7 @@
         <v>1630224</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="6">
         <v>2026</v>
       </c>
@@ -4524,7 +4499,7 @@
         <v>1609447</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="6">
         <v>2026</v>
       </c>
@@ -4541,7 +4516,7 @@
         <v>1629855</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="6">
         <v>2026</v>
       </c>
@@ -4558,7 +4533,7 @@
         <v>1554070</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="6">
         <v>2026</v>
       </c>
@@ -4575,7 +4550,7 @@
         <v>1224804</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="6">
         <v>2026</v>
       </c>
@@ -4592,7 +4567,7 @@
         <v>1039408</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="6">
         <v>2026</v>
       </c>
@@ -4609,7 +4584,7 @@
         <v>1531114</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="6">
         <v>2026</v>
       </c>
@@ -4626,7 +4601,7 @@
         <v>1592836</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="6">
         <v>2026</v>
       </c>
@@ -4643,7 +4618,7 @@
         <v>1611297</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="6">
         <v>2026</v>
       </c>
@@ -4660,7 +4635,7 @@
         <v>1615019</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="6">
         <v>2026</v>
       </c>
@@ -4677,7 +4652,7 @@
         <v>1589419</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="6">
         <v>2026</v>
       </c>
@@ -4694,7 +4669,7 @@
         <v>1170867</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="6">
         <v>2026</v>
       </c>
@@ -4711,7 +4686,7 @@
         <v>1034215</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="6">
         <v>2026</v>
       </c>
@@ -4728,7 +4703,7 @@
         <v>1467742</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="6">
         <v>2026</v>
       </c>
@@ -4745,7 +4720,7 @@
         <v>1573171</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="6">
         <v>2026</v>
       </c>
@@ -4762,7 +4737,7 @@
         <v>1579291</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="6">
         <v>2026</v>
       </c>
@@ -4779,7 +4754,7 @@
         <v>1574568</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="6">
         <v>2026</v>
       </c>
@@ -4796,7 +4771,7 @@
         <v>1522827</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="6">
         <v>2026</v>
       </c>
@@ -4813,7 +4788,7 @@
         <v>1180315</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="6">
         <v>2026</v>
       </c>
@@ -4830,7 +4805,7 @@
         <v>993476</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="6">
         <v>2026</v>
       </c>
@@ -4847,7 +4822,7 @@
         <v>1480712</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="6">
         <v>2026</v>
       </c>
@@ -4864,7 +4839,7 @@
         <v>1567095</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="6">
         <v>2026</v>
       </c>
@@ -4881,7 +4856,7 @@
         <v>1572376</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="6">
         <v>2026</v>
       </c>
@@ -4898,7 +4873,7 @@
         <v>1588713</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="6">
         <v>2026</v>
       </c>
@@ -4915,7 +4890,7 @@
         <v>1505840</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="6">
         <v>2026</v>
       </c>
@@ -4932,7 +4907,7 @@
         <v>1156720</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" s="6">
         <v>2026</v>
       </c>
@@ -4949,7 +4924,7 @@
         <v>1032308</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" s="6">
         <v>2026</v>
       </c>
@@ -4966,7 +4941,7 @@
         <v>1479318</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" s="6">
         <v>2026</v>
       </c>
@@ -4983,7 +4958,7 @@
         <v>1571607</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" s="6">
         <v>2026</v>
       </c>
@@ -5000,7 +4975,7 @@
         <v>1569505</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" s="6">
         <v>2026</v>
       </c>
@@ -5017,7 +4992,7 @@
         <v>1503607</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" s="6">
         <v>2026</v>
       </c>
@@ -5034,7 +5009,7 @@
         <v>1509954</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" s="6">
         <v>2026</v>
       </c>
@@ -5051,7 +5026,7 @@
         <v>1229679</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" s="6">
         <v>2026</v>
       </c>
@@ -5068,7 +5043,7 @@
         <v>1013397</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" s="6">
         <v>2026</v>
       </c>
@@ -5085,7 +5060,7 @@
         <v>1499552</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" s="6">
         <v>2026</v>
       </c>
@@ -5102,7 +5077,7 @@
         <v>1600992</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" s="6">
         <v>2026</v>
       </c>
@@ -5119,7 +5094,7 @@
         <v>1565053</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" s="6">
         <v>2026</v>
       </c>
@@ -5136,7 +5111,7 @@
         <v>1053607</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" s="6">
         <v>2026</v>
       </c>
@@ -5153,7 +5128,7 @@
         <v>809330</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" s="6">
         <v>2026</v>
       </c>
@@ -5170,7 +5145,7 @@
         <v>1273389</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" s="6">
         <v>2026</v>
       </c>
@@ -5187,7 +5162,7 @@
         <v>1078701</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" s="6">
         <v>2026</v>
       </c>
@@ -5204,7 +5179,7 @@
         <v>1517774</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" s="6">
         <v>2026</v>
       </c>
@@ -5221,7 +5196,7 @@
         <v>1577939</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" s="6">
         <v>2026</v>
       </c>
@@ -5238,7 +5213,7 @@
         <v>1571743</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" s="6">
         <v>2026</v>
       </c>
@@ -5255,7 +5230,7 @@
         <v>1858728</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" s="6">
         <v>2026</v>
       </c>
@@ -5272,7 +5247,7 @@
         <v>1802759</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" s="6">
         <v>2026</v>
       </c>
@@ -5289,7 +5264,7 @@
         <v>1466883</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" s="6">
         <v>2026</v>
       </c>
@@ -5306,7 +5281,7 @@
         <v>1166622</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" s="6">
         <v>2026</v>
       </c>
@@ -5323,7 +5298,7 @@
         <v>990583</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" s="6">
         <v>2026</v>
       </c>
@@ -5340,7 +5315,7 @@
         <v>1597364</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" s="6">
         <v>2026</v>
       </c>
@@ -5357,7 +5332,7 @@
         <v>1807903</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" s="6">
         <v>2026</v>
       </c>
@@ -5374,7 +5349,7 @@
         <v>1977829</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" s="6">
         <v>2026</v>
       </c>
@@ -5391,7 +5366,7 @@
         <v>1470826</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" s="6">
         <v>2026</v>
       </c>
@@ -5408,7 +5383,7 @@
         <v>1513287</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" s="6">
         <v>2026</v>
       </c>
@@ -5425,7 +5400,7 @@
         <v>1356306</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" s="6">
         <v>2026</v>
       </c>
@@ -5442,7 +5417,7 @@
         <v>1839779</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" s="6">
         <v>2026</v>
       </c>
@@ -5459,7 +5434,7 @@
         <v>1919439</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" s="6">
         <v>2026</v>
       </c>
@@ -5476,7 +5451,7 @@
         <v>1975213</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" s="6">
         <v>2026</v>
       </c>
@@ -5493,7 +5468,7 @@
         <v>1996678</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" s="6">
         <v>2026</v>
       </c>
@@ -5510,7 +5485,7 @@
         <v>2026252</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" s="6">
         <v>2026</v>
       </c>
@@ -5527,7 +5502,7 @@
         <v>1764827</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" s="6">
         <v>2026</v>
       </c>
@@ -5544,7 +5519,7 @@
         <v>1530750</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" s="6">
         <v>2026</v>
       </c>
@@ -5561,7 +5536,7 @@
         <v>2067495</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" s="6">
         <v>2026</v>
       </c>
@@ -5578,7 +5553,7 @@
         <v>2138197</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" s="6">
         <v>2026</v>
       </c>
@@ -5595,7 +5570,7 @@
         <v>2011614</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" s="6">
         <v>2026</v>
       </c>
@@ -5612,7 +5587,7 @@
         <v>2326165</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" s="6">
         <v>2026</v>
       </c>
@@ -5629,7 +5604,7 @@
         <v>2323357</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" s="6">
         <v>2026</v>
       </c>
@@ -5646,7 +5621,7 @@
         <v>1923514</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" s="6">
         <v>2026</v>
       </c>
@@ -5663,7 +5638,7 @@
         <v>1855865</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" s="6">
         <v>2026</v>
       </c>
@@ -5680,7 +5655,7 @@
         <v>2465071</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" s="6">
         <v>2026</v>
       </c>
@@ -5697,7 +5672,7 @@
         <v>2551295</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" s="6">
         <v>2026</v>
       </c>
@@ -5714,7 +5689,7 @@
         <v>2305468</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" s="6">
         <v>2026</v>
       </c>
@@ -5731,7 +5706,7 @@
         <v>2819588</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" s="6">
         <v>2026</v>
       </c>
@@ -5748,7 +5723,7 @@
         <v>3027873</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" s="6">
         <v>2026</v>
       </c>
@@ -5765,7 +5740,7 @@
         <v>1667128</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" s="6">
         <v>2026</v>
       </c>
@@ -5782,7 +5757,7 @@
         <v>1648252</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" s="6">
         <v>2026</v>
       </c>
@@ -5799,7 +5774,7 @@
         <v>2222875</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" s="6">
         <v>2026</v>
       </c>
@@ -5816,7 +5791,7 @@
         <v>2575059</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" s="6">
         <v>2026</v>
       </c>
@@ -5833,7 +5808,7 @@
         <v>2684782</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" s="6">
         <v>2026</v>
       </c>
@@ -5850,7 +5825,7 @@
         <v>2655939</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" s="6">
         <v>2026</v>
       </c>
@@ -5867,7 +5842,7 @@
         <v>2255637</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" s="6">
         <v>2026</v>
       </c>
@@ -5884,7 +5859,7 @@
         <v>1854895</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" s="6">
         <v>2026</v>
       </c>
@@ -5901,7 +5876,7 @@
         <v>2753400</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" s="6">
         <v>2026</v>
       </c>
@@ -5918,7 +5893,7 @@
         <v>3260373</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" s="6">
         <v>2026</v>
       </c>
@@ -5935,7 +5910,7 @@
         <v>3271245</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" s="6">
         <v>2026</v>
       </c>
@@ -5952,7 +5927,7 @@
         <v>2719874</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" s="6">
         <v>2026</v>
       </c>
@@ -5969,7 +5944,7 @@
         <v>2673118</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" s="6">
         <v>2026</v>
       </c>
@@ -5986,7 +5961,7 @@
         <v>2851854</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" s="6">
         <v>2026</v>
       </c>
@@ -6003,7 +5978,7 @@
         <v>2714858</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" s="6">
         <v>2026</v>
       </c>
@@ -6020,7 +5995,7 @@
         <v>3010547</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" s="6">
         <v>2026</v>
       </c>
@@ -6037,7 +6012,7 @@
         <v>3725053</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" s="6">
         <v>2026</v>
       </c>
@@ -6054,7 +6029,7 @@
         <v>3883979</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" s="6">
         <v>2026</v>
       </c>
@@ -6071,7 +6046,7 @@
         <v>3779671</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" s="6">
         <v>2026</v>
       </c>
@@ -6088,7 +6063,7 @@
         <v>3858625</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" s="6">
         <v>2026</v>
       </c>
@@ -6105,7 +6080,7 @@
         <v>3392108</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" s="6">
         <v>2026</v>
       </c>
@@ -6122,7 +6097,7 @@
         <v>3205771</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" s="6">
         <v>2026</v>
       </c>
@@ -6139,7 +6114,7 @@
         <v>3676211</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" s="6">
         <v>2026</v>
       </c>
@@ -6156,7 +6131,7 @@
         <v>3945067</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" s="6">
         <v>2026</v>
       </c>
@@ -6173,7 +6148,7 @@
         <v>4177976</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" s="6">
         <v>2026</v>
       </c>
@@ -6190,7 +6165,7 @@
         <v>4223553</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" s="6">
         <v>2026</v>
       </c>
@@ -6207,7 +6182,7 @@
         <v>4083398</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" s="6">
         <v>2026</v>
       </c>
@@ -6224,7 +6199,7 @@
         <v>3932593</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" s="6">
         <v>2026</v>
       </c>
@@ -6241,7 +6216,7 @@
         <v>3953889</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" s="6">
         <v>2026</v>
       </c>
@@ -6258,7 +6233,7 @@
         <v>2772103</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" s="6">
         <v>2026</v>
       </c>
@@ -6275,7 +6250,7 @@
         <v>3288342</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" s="6">
         <v>2026</v>
       </c>
@@ -6292,7 +6267,7 @@
         <v>4585220</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" s="6">
         <v>2026</v>
       </c>
@@ -6309,7 +6284,7 @@
         <v>4788932</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" s="6">
         <v>2026</v>
       </c>
@@ -6326,7 +6301,7 @@
         <v>4689537</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" s="6">
         <v>2026</v>
       </c>
@@ -6343,7 +6318,7 @@
         <v>5067338</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" s="6">
         <v>2026</v>
       </c>
@@ -6360,7 +6335,7 @@
         <v>4747016</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" s="6">
         <v>2026</v>
       </c>
@@ -6377,7 +6352,7 @@
         <v>4012324</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" s="6">
         <v>2026</v>
       </c>
@@ -6394,7 +6369,7 @@
         <v>4403576</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" s="6">
         <v>2026</v>
       </c>
@@ -6411,7 +6386,7 @@
         <v>4516042</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" s="6">
         <v>2026</v>
       </c>
@@ -6428,7 +6403,7 @@
         <v>4544777</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" s="6">
         <v>2026</v>
       </c>
@@ -6445,7 +6420,7 @@
         <v>4687697</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" s="6">
         <v>2026</v>
       </c>
@@ -6462,7 +6437,7 @@
         <v>4844324</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" s="6">
         <v>2026</v>
       </c>
@@ -6479,7 +6454,7 @@
         <v>4254554</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" s="6">
         <v>2026</v>
       </c>
@@ -6496,7 +6471,7 @@
         <v>3939310</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" s="6">
         <v>2026</v>
       </c>
@@ -6513,7 +6488,7 @@
         <v>4437949</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" s="6">
         <v>2026</v>
       </c>
@@ -6530,41 +6505,41 @@
         <v>5798456</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A352" s="6">
-        <v>2026</v>
-      </c>
-      <c r="B352" s="6">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A352" s="17">
+        <v>2026</v>
+      </c>
+      <c r="B352" s="17">
         <v>12</v>
       </c>
-      <c r="C352" s="6">
+      <c r="C352" s="17">
         <v>16</v>
       </c>
-      <c r="D352" s="7">
+      <c r="D352" s="18">
         <v>263079.32400000002</v>
       </c>
-      <c r="E352" s="10">
+      <c r="E352" s="19">
         <v>6180939</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A353" s="6">
-        <v>2026</v>
-      </c>
-      <c r="B353" s="6">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A353" s="17">
+        <v>2026</v>
+      </c>
+      <c r="B353" s="17">
         <v>12</v>
       </c>
-      <c r="C353" s="6">
+      <c r="C353" s="17">
         <v>17</v>
       </c>
-      <c r="D353" s="7">
+      <c r="D353" s="18">
         <v>281382.03500000003</v>
       </c>
-      <c r="E353" s="10">
+      <c r="E353" s="19">
         <v>6610954</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" s="6">
         <v>2026</v>
       </c>
@@ -6581,7 +6556,7 @@
         <v>4940644</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" s="6">
         <v>2026</v>
       </c>
@@ -6598,7 +6573,7 @@
         <v>5108704</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" s="6">
         <v>2026</v>
       </c>
@@ -6615,7 +6590,7 @@
         <v>5377928</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" s="6">
         <v>2026</v>
       </c>
@@ -6632,7 +6607,7 @@
         <v>5918008</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358" s="6">
         <v>2026</v>
       </c>
@@ -6649,7 +6624,7 @@
         <v>5884035</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359" s="6">
         <v>2026</v>
       </c>
@@ -6666,7 +6641,7 @@
         <v>5535501</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" s="6">
         <v>2026</v>
       </c>
@@ -6683,7 +6658,7 @@
         <v>5492015</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" s="6">
         <v>2026</v>
       </c>
@@ -6700,24 +6675,24 @@
         <v>4932760</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A362" s="6">
-        <v>2026</v>
-      </c>
-      <c r="B362" s="6">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A362" s="17">
+        <v>2026</v>
+      </c>
+      <c r="B362" s="17">
         <v>12</v>
       </c>
-      <c r="C362" s="6">
+      <c r="C362" s="17">
         <v>26</v>
       </c>
-      <c r="D362" s="7">
+      <c r="D362" s="18">
         <v>265474.79100000003</v>
       </c>
-      <c r="E362" s="10">
+      <c r="E362" s="19">
         <v>6237220</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363" s="6">
         <v>2026</v>
       </c>
@@ -6734,7 +6709,7 @@
         <v>5785025</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364" s="6">
         <v>2026</v>
       </c>
@@ -6751,7 +6726,7 @@
         <v>5850369</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365" s="6">
         <v>2026</v>
       </c>
@@ -6768,7 +6743,7 @@
         <v>5233913</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" s="6">
         <v>2026</v>
       </c>
@@ -6785,7 +6760,7 @@
         <v>5223543</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367" s="8">
         <v>2026</v>
       </c>
@@ -6802,7 +6777,7 @@
         <v>5370051</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -6821,20 +6796,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -6842,7 +6817,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -6850,7 +6825,7 @@
         <v>7484365.5640000002</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -6858,7 +6833,7 @@
         <v>5712325.9690000005</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -6866,7 +6841,7 @@
         <v>4710006.409</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -6874,7 +6849,7 @@
         <v>3035367.5100000002</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -6882,7 +6857,7 @@
         <v>2303352.8629999999</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -6890,7 +6865,7 @@
         <v>1997629.875</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -6898,7 +6873,7 @@
         <v>1875537.362</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -6906,7 +6881,7 @@
         <v>1805179.0630000001</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -6914,7 +6889,7 @@
         <v>1777114.3230000001</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -6922,7 +6897,7 @@
         <v>2534399.16</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -6930,7 +6905,7 @@
         <v>4045657.7150000003</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -6938,7 +6913,7 @@
         <v>6767459.9759999998</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>3</v>
       </c>
